--- a/academycity/data/avi/datasets/excel/world_bank/output/2019_AllRePub_o.xlsx
+++ b/academycity/data/avi/datasets/excel/world_bank/output/2019_AllRePub_o.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,6 +380,21 @@
           <t>OECD#AllRePub</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cwurscore</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cwurresearch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>shanghaiEng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -419,6 +434,12 @@
       <c r="C4" t="n">
         <v>5.30301015085504e-05</v>
       </c>
+      <c r="D4" t="n">
+        <v>4.690276875731407e-06</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0001178540365229964</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -445,6 +466,15 @@
       <c r="C6" t="n">
         <v>0.0003749413200805578</v>
       </c>
+      <c r="D6" t="n">
+        <v>1.693639995734635e-05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0003035244979873923</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.613308365402195e-06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -458,6 +488,12 @@
       <c r="C7" t="n">
         <v>0.0002135856104476988</v>
       </c>
+      <c r="D7" t="n">
+        <v>2.343471358241964e-05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0006636881062978754</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -471,6 +507,15 @@
       <c r="C8" t="n">
         <v>0.003149799388063646</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.0001136138652640583</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.001027773361214705</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.712658261766266e-05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -484,6 +529,15 @@
       <c r="C9" t="n">
         <v>0.001952179749367111</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.0001371971819565942</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.001692920656942855</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.577725925458788e-05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -523,6 +577,12 @@
       <c r="C12" t="n">
         <v>4.218263270895586e-05</v>
       </c>
+      <c r="D12" t="n">
+        <v>4.047941596926977e-07</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.787560279136868e-06</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -536,6 +596,12 @@
       <c r="C13" t="n">
         <v>0.0001548415575007341</v>
       </c>
+      <c r="D13" t="n">
+        <v>7.537348624030469e-06</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.981122444971516e-05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -549,6 +615,15 @@
       <c r="C14" t="n">
         <v>0.002447356510325547</v>
       </c>
+      <c r="D14" t="n">
+        <v>6.637664962424863e-05</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0003585174663024916</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.371145219157837e-05</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -614,6 +689,15 @@
       <c r="C19" t="n">
         <v>0.0006394158549493315</v>
       </c>
+      <c r="D19" t="n">
+        <v>1.714397327247579e-05</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0002684872381420749</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.731571151847318e-06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -627,6 +711,12 @@
       <c r="C20" t="n">
         <v>0.0005517677569515355</v>
       </c>
+      <c r="D20" t="n">
+        <v>2.009816563382833e-05</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.000283409939073314</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -679,6 +769,12 @@
       <c r="C24" t="n">
         <v>5.117339810221267e-05</v>
       </c>
+      <c r="D24" t="n">
+        <v>2.687886255169769e-06</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.363451712937937e-05</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -692,6 +788,15 @@
       <c r="C25" t="n">
         <v>0.002344202835917868</v>
       </c>
+      <c r="D25" t="n">
+        <v>8.437489943813008e-05</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0008633228221523604</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.395101702790041e-05</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -718,6 +823,15 @@
       <c r="C27" t="n">
         <v>0.00063822839745928</v>
       </c>
+      <c r="D27" t="n">
+        <v>5.453929032219096e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0009727153859466262</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.580399890018034e-05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -731,6 +845,15 @@
       <c r="C28" t="n">
         <v>0.0003487574951429413</v>
       </c>
+      <c r="D28" t="n">
+        <v>1.246681749890783e-05</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0001845675175546708</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.538773002212758e-06</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -744,6 +867,15 @@
       <c r="C29" t="n">
         <v>0.0003009326682474882</v>
       </c>
+      <c r="D29" t="n">
+        <v>1.09549395718918e-05</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0002058683806052857</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.122297255211795e-06</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -783,6 +915,12 @@
       <c r="C32" t="n">
         <v>0.0002621224529612558</v>
       </c>
+      <c r="D32" t="n">
+        <v>1.35705705067841e-05</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0002346331973129484</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -809,6 +947,12 @@
       <c r="C34" t="n">
         <v>0.001349871705401853</v>
       </c>
+      <c r="D34" t="n">
+        <v>6.897479689455981e-05</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001072257987387255</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -822,6 +966,12 @@
       <c r="C35" t="n">
         <v>0.0001976866571580029</v>
       </c>
+      <c r="D35" t="n">
+        <v>5.832090405884331e-06</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0001666564015984523</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -835,6 +985,12 @@
       <c r="C36" t="n">
         <v>0.001787057019813873</v>
       </c>
+      <c r="D36" t="n">
+        <v>0.000113033797837954</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.001885524187116914</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -861,6 +1017,15 @@
       <c r="C38" t="n">
         <v>0.003402544569348424</v>
       </c>
+      <c r="D38" t="n">
+        <v>9.197818802969581e-05</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0006461519304928331</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.223979614826719e-05</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -900,6 +1065,15 @@
       <c r="C41" t="n">
         <v>0.0002083770775718244</v>
       </c>
+      <c r="D41" t="n">
+        <v>1.165134903089246e-05</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0002146684841357264</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.461862742052492e-06</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -939,6 +1113,15 @@
       <c r="C44" t="n">
         <v>0.001751325271422521</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.0001584899517521317</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.002437263452051326</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.205819889697626e-05</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -965,6 +1148,12 @@
       <c r="C46" t="n">
         <v>3.296495284628469e-05</v>
       </c>
+      <c r="D46" t="n">
+        <v>2.960026653909636e-06</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.614932270682012e-05</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -978,6 +1167,15 @@
       <c r="C47" t="n">
         <v>0.002606422841470398</v>
       </c>
+      <c r="D47" t="n">
+        <v>0.0001343811927182055</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0007785778268134307</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4.102067405751153e-05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -991,6 +1189,15 @@
       <c r="C48" t="n">
         <v>0.001314092548909412</v>
       </c>
+      <c r="D48" t="n">
+        <v>0.0001020582284374335</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.001255238302735824</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.150798344648923e-05</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1030,6 +1237,12 @@
       <c r="C51" t="n">
         <v>0.0001576571551607578</v>
       </c>
+      <c r="D51" t="n">
+        <v>3.693388538829368e-05</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.000676046009836671</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1043,6 +1256,15 @@
       <c r="C52" t="n">
         <v>0.001681441323514259</v>
       </c>
+      <c r="D52" t="n">
+        <v>6.194387438011898e-05</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0004726994808537455</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.955159571757714e-05</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1056,6 +1278,12 @@
       <c r="C53" t="n">
         <v>9.451407242303781e-05</v>
       </c>
+      <c r="D53" t="n">
+        <v>4.349303302520217e-06</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8.048273142592115e-05</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1069,6 +1297,15 @@
       <c r="C54" t="n">
         <v>0.001184991170146346</v>
       </c>
+      <c r="D54" t="n">
+        <v>9.194538641778797e-05</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.001374890384646594</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.134946130151315e-05</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1160,6 +1397,15 @@
       <c r="C61" t="n">
         <v>0.0008622401416579701</v>
       </c>
+      <c r="D61" t="n">
+        <v>7.137344553722027e-05</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0009804382108496849</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.637475091189453e-06</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1173,6 +1419,15 @@
       <c r="C62" t="n">
         <v>0.0001032046825128882</v>
       </c>
+      <c r="D62" t="n">
+        <v>3.372973288751262e-06</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6.419653418535396e-05</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5.384957784150604e-07</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1186,6 +1441,15 @@
       <c r="C63" t="n">
         <v>0.0003122484655720606</v>
       </c>
+      <c r="D63" t="n">
+        <v>2.496449347944123e-07</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.812683697219079e-06</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7.519023518993665e-07</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1225,6 +1489,15 @@
       <c r="C66" t="n">
         <v>0.00224135953339251</v>
       </c>
+      <c r="D66" t="n">
+        <v>0.0001319730703599671</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.001421061378016108</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9.109627630037655e-05</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1238,6 +1511,15 @@
       <c r="C67" t="n">
         <v>0.001914297548045063</v>
       </c>
+      <c r="D67" t="n">
+        <v>7.581179589131875e-05</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.000610337972166998</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3.182018997128341e-05</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1251,6 +1533,15 @@
       <c r="C68" t="n">
         <v>0.001383982954634778</v>
       </c>
+      <c r="D68" t="n">
+        <v>8.025906174581859e-05</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0008359579481894255</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.814359072425708e-05</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1264,6 +1555,12 @@
       <c r="C69" t="n">
         <v>0.0002257289411761361</v>
       </c>
+      <c r="D69" t="n">
+        <v>2.391806304204355e-05</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.000550506384132622</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1277,6 +1574,15 @@
       <c r="C70" t="n">
         <v>0.0009772891742278868</v>
       </c>
+      <c r="D70" t="n">
+        <v>7.22868446613442e-05</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.001134246207544637</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8.63992798085807e-06</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1290,6 +1596,15 @@
       <c r="C71" t="n">
         <v>0.0003132441628563067</v>
       </c>
+      <c r="D71" t="n">
+        <v>1.899299194115761e-05</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0004138827180878245</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.237535498528183e-05</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1316,6 +1631,12 @@
       <c r="C73" t="n">
         <v>5.78576272117869e-05</v>
       </c>
+      <c r="D73" t="n">
+        <v>1.352267697975229e-06</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.351257913170283e-05</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1342,6 +1663,12 @@
       <c r="C75" t="n">
         <v>0.0002551552543288825</v>
       </c>
+      <c r="D75" t="n">
+        <v>1.553669136024859e-05</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0002656999392042512</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1381,6 +1708,12 @@
       <c r="C78" t="n">
         <v>0.0008818897473223738</v>
       </c>
+      <c r="D78" t="n">
+        <v>3.542649211891179e-05</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0007461508959558412</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1394,6 +1727,15 @@
       <c r="C79" t="n">
         <v>0.0004185937269485656</v>
       </c>
+      <c r="D79" t="n">
+        <v>2.400592053798168e-05</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0004519270199261247</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.138032832420169e-05</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1446,6 +1788,15 @@
       <c r="C83" t="n">
         <v>0.001017290848659175</v>
       </c>
+      <c r="D83" t="n">
+        <v>9.799090023144893e-05</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0019344076543133</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3.575343657093407e-05</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1472,6 +1823,12 @@
       <c r="C85" t="n">
         <v>1.274212677708571e-05</v>
       </c>
+      <c r="D85" t="n">
+        <v>3.635913218701717e-06</v>
+      </c>
+      <c r="E85" t="n">
+        <v>6.657007292550082e-05</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -1485,6 +1842,15 @@
       <c r="C86" t="n">
         <v>0.0007310021759528254</v>
       </c>
+      <c r="D86" t="n">
+        <v>1.714424024860368e-05</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0002518288917029072</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.917447922541201e-05</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1537,6 +1903,15 @@
       <c r="C90" t="n">
         <v>0.0002456938369046386</v>
       </c>
+      <c r="D90" t="n">
+        <v>7.770696592823758e-06</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0001347640251699898</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.918690516746606e-06</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -1576,6 +1951,12 @@
       <c r="C93" t="n">
         <v>6.228637580318071e-05</v>
       </c>
+      <c r="D93" t="n">
+        <v>7.624418500365025e-06</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0001265686524898023</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -1589,6 +1970,12 @@
       <c r="C94" t="n">
         <v>7.371128089112992e-05</v>
       </c>
+      <c r="D94" t="n">
+        <v>2.195763365388727e-06</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5.771720846164653e-05</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1628,6 +2015,15 @@
       <c r="C97" t="n">
         <v>0.002323440919778374</v>
       </c>
+      <c r="D97" t="n">
+        <v>6.324058623890839e-05</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0002434148555936469</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.483449923014719e-05</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -1641,6 +2037,15 @@
       <c r="C98" t="n">
         <v>0.002208192079048843</v>
       </c>
+      <c r="D98" t="n">
+        <v>0.0001171071658097686</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.001106804305912596</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4.920469151670951e-05</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -1680,6 +2085,12 @@
       <c r="C101" t="n">
         <v>6.717461019011818e-05</v>
       </c>
+      <c r="D101" t="n">
+        <v>1.32363037015434e-06</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.137166295371378e-05</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -1693,6 +2104,12 @@
       <c r="C102" t="n">
         <v>0.0002419759483101507</v>
       </c>
+      <c r="D102" t="n">
+        <v>3.202205043208099e-05</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0008475008836159781</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -1706,6 +2123,15 @@
       <c r="C103" t="n">
         <v>0.002666171892647127</v>
       </c>
+      <c r="D103" t="n">
+        <v>0.0001736757782873863</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.002522861327146227</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.668339100087212e-05</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -1719,6 +2145,12 @@
       <c r="C104" t="n">
         <v>0.0002089460081411881</v>
       </c>
+      <c r="D104" t="n">
+        <v>1.483889694201402e-05</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0002852631286217337</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -1732,6 +2164,15 @@
       <c r="C105" t="n">
         <v>8.11550172938478e-05</v>
       </c>
+      <c r="D105" t="n">
+        <v>3.359707018500512e-06</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6.889593811331894e-05</v>
+      </c>
+      <c r="F105" t="n">
+        <v>6.704187425613524e-07</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -1784,6 +2225,12 @@
       <c r="C109" t="n">
         <v>0.0001398537529222135</v>
       </c>
+      <c r="D109" t="n">
+        <v>4.118829322689287e-06</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9.166832420097682e-05</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -1797,6 +2244,15 @@
       <c r="C110" t="n">
         <v>4.35908221867998e-05</v>
       </c>
+      <c r="D110" t="n">
+        <v>1.228474472789671e-06</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.604619549609369e-05</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.449527401521736e-07</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -1810,6 +2266,15 @@
       <c r="C111" t="n">
         <v>0.001070626141250702</v>
       </c>
+      <c r="D111" t="n">
+        <v>6.744812227425048e-05</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.001175410027136497</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.953592046457999e-06</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -1823,6 +2288,15 @@
       <c r="C112" t="n">
         <v>0.00187960097850891</v>
       </c>
+      <c r="D112" t="n">
+        <v>0.0001025834163485806</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.001625566058344026</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3.098306936153587e-05</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -1836,6 +2310,12 @@
       <c r="C113" t="n">
         <v>0.0006229181631051691</v>
       </c>
+      <c r="D113" t="n">
+        <v>6.506572013474052e-05</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.001065850391427607</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -1849,6 +2329,15 @@
       <c r="C114" t="n">
         <v>0.0006105758869492579</v>
       </c>
+      <c r="D114" t="n">
+        <v>2.493556827269537e-05</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0003580035159151265</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5.699558462330372e-06</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -1862,6 +2351,15 @@
       <c r="C115" t="n">
         <v>0.0004394845497915304</v>
       </c>
+      <c r="D115" t="n">
+        <v>4.577308032852961e-05</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0009295543672897628</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.651898692356995e-06</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -1875,6 +2373,15 @@
       <c r="C116" t="n">
         <v>0.0004937840610664381</v>
       </c>
+      <c r="D116" t="n">
+        <v>9.211511957919885e-06</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0001459424255849959</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4.833585435745061e-06</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -1901,6 +2408,15 @@
       <c r="C118" t="n">
         <v>0.0003824208435999279</v>
       </c>
+      <c r="D118" t="n">
+        <v>1.393627585530858e-05</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0001986191447754373</v>
+      </c>
+      <c r="F118" t="n">
+        <v>8.080416303047933e-06</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -1914,6 +2430,12 @@
       <c r="C119" t="n">
         <v>2.36719695119882e-05</v>
       </c>
+      <c r="D119" t="n">
+        <v>4.168546522822855e-06</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.0001065572986718586</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -1927,6 +2449,12 @@
       <c r="C120" t="n">
         <v>0.0008124131148910008</v>
       </c>
+      <c r="D120" t="n">
+        <v>4.057458098970013e-05</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.0005903327965144448</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -1953,6 +2481,15 @@
       <c r="C122" t="n">
         <v>0.002512528558872523</v>
       </c>
+      <c r="D122" t="n">
+        <v>5.275644074788961e-05</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0004402506570885703</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3.271635707396544e-05</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -1966,6 +2503,12 @@
       <c r="C123" t="n">
         <v>0.0007681127773050487</v>
       </c>
+      <c r="D123" t="n">
+        <v>5.047535389126843e-05</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0009391019347296653</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -1979,6 +2522,15 @@
       <c r="C124" t="n">
         <v>0.001782659806501196</v>
       </c>
+      <c r="D124" t="n">
+        <v>0.0001333087529358811</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.002348226021542962</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7.661422582521901e-06</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2005,6 +2557,15 @@
       <c r="C126" t="n">
         <v>0.0003526728976017118</v>
       </c>
+      <c r="D126" t="n">
+        <v>1.604832608573459e-05</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.000199252656207136</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.99872415635463e-06</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2031,6 +2592,15 @@
       <c r="C128" t="n">
         <v>0.001549601624802479</v>
       </c>
+      <c r="D128" t="n">
+        <v>8.106530632534063e-05</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0007866580720327939</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.673921138201878e-05</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -2044,6 +2614,12 @@
       <c r="C129" t="n">
         <v>0.0001229362931706646</v>
       </c>
+      <c r="D129" t="n">
+        <v>6.187221941934596e-06</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.0001402559280832913</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -2070,6 +2646,15 @@
       <c r="C131" t="n">
         <v>0.002683880073786199</v>
       </c>
+      <c r="D131" t="n">
+        <v>0.0001374273304103839</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.001454243051801231</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4.56080507549115e-05</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -2083,6 +2668,15 @@
       <c r="C132" t="n">
         <v>0.003376126493828773</v>
       </c>
+      <c r="D132" t="n">
+        <v>0.0001081947178401172</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.0004773021988786372</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4.00220167737963e-05</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -2122,6 +2716,12 @@
       <c r="C135" t="n">
         <v>1.526374870205608e-05</v>
       </c>
+      <c r="D135" t="n">
+        <v>1.127394228332807e-06</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.512001362092653e-05</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -2135,6 +2735,15 @@
       <c r="C136" t="n">
         <v>0.0001717103367833878</v>
       </c>
+      <c r="D136" t="n">
+        <v>1.068326880482844e-05</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.000165073191259695</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.189102468408664e-06</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -2187,6 +2796,12 @@
       <c r="C140" t="n">
         <v>0.0003416086592149561</v>
       </c>
+      <c r="D140" t="n">
+        <v>2.285607296813744e-05</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.0004107287767585773</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -2226,6 +2841,12 @@
       <c r="C143" t="n">
         <v>2.204331268562679e-05</v>
       </c>
+      <c r="D143" t="n">
+        <v>1.664762085707074e-06</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.809119077754401e-05</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -2239,6 +2860,12 @@
       <c r="C144" t="n">
         <v>0.0002986988997459413</v>
       </c>
+      <c r="D144" t="n">
+        <v>3.030220899949473e-06</v>
+      </c>
+      <c r="E144" t="n">
+        <v>7.112570543598875e-05</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -2252,6 +2879,12 @@
       <c r="C145" t="n">
         <v>0.0004710672574977554</v>
       </c>
+      <c r="D145" t="n">
+        <v>2.947352468725225e-05</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.0006362590356979206</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -2265,6 +2898,15 @@
       <c r="C146" t="n">
         <v>0.002448509176753534</v>
       </c>
+      <c r="D146" t="n">
+        <v>0.0001037968468853772</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.001064406187371727</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3.653701676335385e-05</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -2278,6 +2920,15 @@
       <c r="C147" t="n">
         <v>0.002140370848224134</v>
       </c>
+      <c r="D147" t="n">
+        <v>8.053727586651224e-05</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.0008012610412063136</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.757256670395832e-05</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -2291,6 +2942,12 @@
       <c r="C148" t="n">
         <v>0.0004002381279479782</v>
       </c>
+      <c r="D148" t="n">
+        <v>2.079681858261368e-05</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.0002310109441434788</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -2317,6 +2974,12 @@
       <c r="C150" t="n">
         <v>6.321828110572658e-05</v>
       </c>
+      <c r="D150" t="n">
+        <v>2.343667780708494e-06</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4.887531041948789e-05</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -2330,6 +2993,12 @@
       <c r="C151" t="n">
         <v>5.588007423432643e-05</v>
       </c>
+      <c r="D151" t="n">
+        <v>2.790866205936733e-06</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.982908037899316e-05</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -2369,6 +3038,12 @@
       <c r="C154" t="n">
         <v>1.836731440647596e-05</v>
       </c>
+      <c r="D154" t="n">
+        <v>3.726780322404038e-06</v>
+      </c>
+      <c r="E154" t="n">
+        <v>7.018316227593005e-05</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -2381,6 +3056,12 @@
       </c>
       <c r="C155" t="n">
         <v>7.855036090794372e-05</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4.428637969787311e-06</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9.182911084411923e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +3075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,6 +3094,21 @@
           <t>OECD#AllRePub</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cwurscore</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cwurresearch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>shanghaiEng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2424,7 +3120,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.019457</v>
+        <v>-0.015424</v>
       </c>
     </row>
     <row r="3">
@@ -2437,7 +3133,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.005011</v>
+        <v>0.435504</v>
       </c>
     </row>
     <row r="4">
@@ -2450,7 +3146,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.002368</v>
+        <v>0.299517</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.032944</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2463,7 +3165,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.019236</v>
+        <v>-0.011345</v>
       </c>
     </row>
     <row r="6">
@@ -2476,7 +3178,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.105864</v>
+        <v>2.294102</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.213858</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.017629</v>
       </c>
     </row>
     <row r="7">
@@ -2489,7 +3200,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.051614</v>
+        <v>1.29433</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.309859</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.231069</v>
       </c>
     </row>
     <row r="8">
@@ -2502,7 +3219,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.038813</v>
+        <v>19.487319</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.642092</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.385199</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.000888</v>
       </c>
     </row>
     <row r="9">
@@ -2515,7 +3241,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.636155</v>
+        <v>12.066783</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.990493</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.666777</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.010342</v>
       </c>
     </row>
     <row r="10">
@@ -2528,7 +3263,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.000769</v>
+        <v>0.357323</v>
       </c>
     </row>
     <row r="11">
@@ -2541,7 +3276,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.376037</v>
+        <v>7.273089</v>
       </c>
     </row>
     <row r="12">
@@ -2554,7 +3289,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.006015</v>
+        <v>0.232305</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.030366</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.045748</v>
       </c>
     </row>
     <row r="13">
@@ -2567,7 +3308,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.031863</v>
+        <v>0.930348</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.075004</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.011871</v>
       </c>
     </row>
     <row r="14">
@@ -2580,7 +3327,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.802641</v>
+        <v>15.134933</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.944248</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.101881</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.004934</v>
       </c>
     </row>
     <row r="15">
@@ -2593,7 +3349,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.004195</v>
+        <v>0.265844</v>
       </c>
     </row>
     <row r="16">
@@ -2606,7 +3362,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.012632</v>
+        <v>0.110361</v>
       </c>
     </row>
     <row r="17">
@@ -2619,7 +3375,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.103269</v>
+        <v>2.246278</v>
       </c>
     </row>
     <row r="18">
@@ -2632,7 +3388,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.025858</v>
+        <v>0.819678</v>
       </c>
     </row>
     <row r="19">
@@ -2645,7 +3401,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.194784</v>
+        <v>3.932805</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.216925</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.06376800000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.017292</v>
       </c>
     </row>
     <row r="20">
@@ -2658,7 +3423,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.165316</v>
+        <v>3.389731</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.260567</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.07008499999999999</v>
       </c>
     </row>
     <row r="21">
@@ -2671,7 +3442,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.019122</v>
+        <v>-0.009247</v>
       </c>
     </row>
     <row r="22">
@@ -2684,7 +3455,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.019642</v>
+        <v>-0.018835</v>
       </c>
     </row>
     <row r="23">
@@ -2697,7 +3468,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.000767</v>
+        <v>0.357293</v>
       </c>
     </row>
     <row r="24">
@@ -2710,7 +3481,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.002992</v>
+        <v>0.288013</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.003362</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.03142</v>
       </c>
     </row>
     <row r="25">
@@ -2723,7 +3500,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.7679589999999999</v>
+        <v>14.495786</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.21014</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.315581</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.007877</v>
       </c>
     </row>
     <row r="26">
@@ -2736,7 +3522,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.019997</v>
+        <v>-0.025369</v>
       </c>
     </row>
     <row r="27">
@@ -2749,7 +3535,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.194385</v>
+        <v>3.925447</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.769373</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.361891</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.01335</v>
       </c>
     </row>
     <row r="28">
@@ -2762,7 +3557,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.09705999999999999</v>
+        <v>2.131865</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.147828</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.028242</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.017651</v>
       </c>
     </row>
     <row r="29">
@@ -2775,7 +3579,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.080981</v>
+        <v>1.835539</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.125493</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.037259</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.017174</v>
       </c>
     </row>
     <row r="30">
@@ -2788,7 +3601,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.019311</v>
+        <v>-0.012731</v>
       </c>
     </row>
     <row r="31">
@@ -2801,7 +3614,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.01446</v>
+        <v>0.076658</v>
       </c>
     </row>
     <row r="32">
@@ -2814,7 +3627,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.06793200000000001</v>
+        <v>1.595068</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.164134</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.049436</v>
       </c>
     </row>
     <row r="33">
@@ -2827,7 +3646,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.015994</v>
+        <v>0.048405</v>
       </c>
     </row>
     <row r="34">
@@ -2840,7 +3659,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.43365</v>
+        <v>8.334839000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.982631</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.40403</v>
       </c>
     </row>
     <row r="35">
@@ -2853,7 +3678,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.046268</v>
+        <v>1.195819</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.049812</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.02066</v>
       </c>
     </row>
     <row r="36">
@@ -2866,7 +3697,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.580638</v>
+        <v>11.043671</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.633523</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.748313</v>
       </c>
     </row>
     <row r="37">
@@ -2879,7 +3716,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.384118</v>
+        <v>7.422014</v>
       </c>
     </row>
     <row r="38">
@@ -2892,7 +3729,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.12379</v>
+        <v>21.053346</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.322465</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.223646</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.005378</v>
       </c>
     </row>
     <row r="39">
@@ -2905,7 +3751,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.015091</v>
+        <v>0.065042</v>
       </c>
     </row>
     <row r="40">
@@ -2918,7 +3764,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.062986</v>
+        <v>1.503914</v>
       </c>
     </row>
     <row r="41">
@@ -2931,7 +3777,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.049862</v>
+        <v>1.262058</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.135781</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.040985</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.017675</v>
       </c>
     </row>
     <row r="42">
@@ -2944,7 +3799,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.008109</v>
+        <v>0.193703</v>
       </c>
     </row>
     <row r="43">
@@ -2957,7 +3812,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.018827</v>
+        <v>-0.003808</v>
       </c>
     </row>
     <row r="44">
@@ -2970,7 +3825,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.568625</v>
+        <v>10.822274</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.305055</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.981882</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.014479</v>
       </c>
     </row>
     <row r="45">
@@ -2983,7 +3847,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.00295</v>
+        <v>0.288791</v>
       </c>
     </row>
     <row r="46">
@@ -2996,7 +3860,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.009114000000000001</v>
+        <v>0.175192</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.007383</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.021888</v>
       </c>
     </row>
     <row r="47">
@@ -3009,7 +3879,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.856122</v>
+        <v>16.120519</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.948892</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.279706</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.005745</v>
       </c>
     </row>
     <row r="48">
@@ -3022,7 +3901,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.421621</v>
+        <v>8.113149</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.471379</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.481492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.014645</v>
       </c>
     </row>
     <row r="49">
@@ -3035,7 +3923,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.009934</v>
+        <v>0.160071</v>
       </c>
     </row>
     <row r="50">
@@ -3048,7 +3936,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.017028</v>
+        <v>0.029346</v>
       </c>
     </row>
     <row r="51">
@@ -3061,7 +3949,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.03281</v>
+        <v>0.947793</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.509285</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.236301</v>
       </c>
     </row>
     <row r="52">
@@ -3074,7 +3968,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.545129</v>
+        <v>10.389268</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.878762</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.150218</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.012219</v>
       </c>
     </row>
     <row r="53">
@@ -3087,7 +3990,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01158</v>
+        <v>0.556554</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.027907</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.01582</v>
       </c>
     </row>
     <row r="54">
@@ -3100,7 +4009,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.378215</v>
+        <v>7.313228</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.32198</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.532145</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.011677</v>
       </c>
     </row>
     <row r="55">
@@ -3113,7 +4031,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.014945</v>
+        <v>0.06772300000000001</v>
       </c>
     </row>
     <row r="56">
@@ -3126,7 +4044,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.020197</v>
+        <v>-0.029057</v>
       </c>
     </row>
     <row r="57">
@@ -3139,7 +4057,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-0.018068</v>
+        <v>0.010182</v>
       </c>
     </row>
     <row r="58">
@@ -3152,7 +4070,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.020069</v>
+        <v>-0.026702</v>
       </c>
     </row>
     <row r="59">
@@ -3165,7 +4083,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.015211</v>
+        <v>0.06282699999999999</v>
       </c>
     </row>
     <row r="60">
@@ -3178,7 +4096,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.70192</v>
+        <v>13.278754</v>
       </c>
     </row>
     <row r="61">
@@ -3191,7 +4109,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.269701</v>
+        <v>5.31344</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.018067</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.36516</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.017622</v>
       </c>
     </row>
     <row r="62">
@@ -3204,7 +4131,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.014502</v>
+        <v>0.610402</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.013483</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0.022715</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.017953</v>
       </c>
     </row>
     <row r="63">
@@ -3217,7 +4153,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.084786</v>
+        <v>1.905652</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.032658</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.047431</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.017889</v>
       </c>
     </row>
     <row r="64">
@@ -3230,7 +4175,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.245726</v>
+        <v>4.871598</v>
       </c>
     </row>
     <row r="65">
@@ -3243,7 +4188,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.024608</v>
+        <v>0.7966529999999999</v>
       </c>
     </row>
     <row r="66">
@@ -3256,7 +4201,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.733382</v>
+        <v>13.858561</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.913316</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.55169</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.009356</v>
       </c>
     </row>
     <row r="67">
@@ -3269,7 +4223,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.6234189999999999</v>
+        <v>11.832062</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.083635</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.208485</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.00852</v>
       </c>
     </row>
     <row r="68">
@@ -3282,7 +4245,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.445119</v>
+        <v>8.546195000000001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.149336</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.303997</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.012644</v>
       </c>
     </row>
     <row r="69">
@@ -3295,7 +4267,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.055696</v>
+        <v>1.369571</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.183156</v>
       </c>
     </row>
     <row r="70">
@@ -3308,7 +4286,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.308382</v>
+        <v>6.026292</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.031561</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.430272</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.01551</v>
       </c>
     </row>
     <row r="71">
@@ -3321,7 +4308,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.08512</v>
+        <v>1.911822</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.244241</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.125319</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.014384</v>
       </c>
     </row>
     <row r="72">
@@ -3334,7 +4330,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.009963</v>
+        <v>0.526761</v>
       </c>
     </row>
     <row r="73">
@@ -3347,7 +4343,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.000745</v>
+        <v>0.329429</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.016369</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.039938</v>
       </c>
     </row>
     <row r="74">
@@ -3360,7 +4362,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.433068</v>
+        <v>8.324120000000001</v>
       </c>
     </row>
     <row r="75">
@@ -3373,7 +4375,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.06559</v>
+        <v>1.551899</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.19318</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.062588</v>
       </c>
     </row>
     <row r="76">
@@ -3386,7 +4394,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-0.013754</v>
+        <v>0.089674</v>
       </c>
     </row>
     <row r="77">
@@ -3399,7 +4407,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.016551</v>
+        <v>0.038131</v>
       </c>
     </row>
     <row r="78">
@@ -3412,7 +4420,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.276308</v>
+        <v>5.43519</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.487016</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.265979</v>
       </c>
     </row>
     <row r="79">
@@ -3425,7 +4439,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.12054</v>
+        <v>2.564575</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.318297</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.141424</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.014684</v>
       </c>
     </row>
     <row r="80">
@@ -3438,7 +4461,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.014156</v>
+        <v>0.08226600000000001</v>
       </c>
     </row>
     <row r="81">
@@ -3451,7 +4474,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-0.019882</v>
+        <v>-0.023257</v>
       </c>
     </row>
     <row r="82">
@@ -3464,7 +4487,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-0.005522</v>
+        <v>0.241378</v>
       </c>
     </row>
     <row r="83">
@@ -3477,7 +4500,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.321831</v>
+        <v>6.274145</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.411291</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.769007</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.007334</v>
       </c>
     </row>
     <row r="84">
@@ -3490,7 +4522,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.019047</v>
+        <v>-0.007874000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -3503,7 +4535,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-0.015913</v>
+        <v>0.04989</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.017368</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0.02171</v>
       </c>
     </row>
     <row r="86">
@@ -3516,7 +4554,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.225577</v>
+        <v>4.50028</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.216929</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.056716</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.012333</v>
       </c>
     </row>
     <row r="87">
@@ -3529,7 +4576,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.018136</v>
+        <v>0.008914999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -3542,7 +4589,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.018809</v>
+        <v>-0.003479</v>
       </c>
     </row>
     <row r="89">
@@ -3555,7 +4602,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.037058</v>
+        <v>1.026078</v>
       </c>
     </row>
     <row r="90">
@@ -3568,7 +4615,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.062409</v>
+        <v>1.493275</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.07845100000000001</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.007159</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.017537</v>
       </c>
     </row>
     <row r="91">
@@ -3581,7 +4637,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.014926</v>
+        <v>0.618215</v>
       </c>
     </row>
     <row r="92">
@@ -3594,7 +4650,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.008057</v>
+        <v>0.491631</v>
       </c>
     </row>
     <row r="93">
@@ -3607,7 +4663,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.000745</v>
+        <v>0.356869</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.07629</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.003689</v>
       </c>
     </row>
     <row r="94">
@@ -3620,7 +4682,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.004586</v>
+        <v>0.427659</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.003908</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.025458</v>
       </c>
     </row>
     <row r="95">
@@ -3633,7 +4701,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-0.018388</v>
+        <v>0.004276</v>
       </c>
     </row>
     <row r="96">
@@ -3646,7 +4714,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-0.004651</v>
+        <v>0.257431</v>
       </c>
     </row>
     <row r="97">
@@ -3659,7 +4727,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.760979</v>
+        <v>14.367143</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.897919</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.053154</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.007611</v>
       </c>
     </row>
     <row r="98">
@@ -3672,7 +4749,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.72223</v>
+        <v>13.653053</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.6937</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.418655</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.003277</v>
       </c>
     </row>
     <row r="99">
@@ -3685,7 +4771,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.015948</v>
+        <v>0.637052</v>
       </c>
     </row>
     <row r="100">
@@ -3698,7 +4784,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.019094</v>
+        <v>-0.008729000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -3711,7 +4797,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.002388</v>
+        <v>0.387157</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.016792</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.036611</v>
       </c>
     </row>
     <row r="102">
@@ -3724,7 +4816,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.061159</v>
+        <v>1.470239</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.436721</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.308883</v>
       </c>
     </row>
     <row r="103">
@@ -3737,7 +4835,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.87621</v>
+        <v>16.490729</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.529398</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.018118</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.010069</v>
       </c>
     </row>
     <row r="104">
@@ -3750,7 +4857,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.050054</v>
+        <v>1.265583</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.182871</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.07087</v>
       </c>
     </row>
     <row r="105">
@@ -3763,7 +4876,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.007088</v>
+        <v>0.473781</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.013287</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.020726</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.017913</v>
       </c>
     </row>
     <row r="106">
@@ -3776,7 +4898,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.009306</v>
+        <v>0.514652</v>
       </c>
     </row>
     <row r="107">
@@ -3789,7 +4911,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-0.017795</v>
+        <v>0.015215</v>
       </c>
     </row>
     <row r="108">
@@ -3802,7 +4924,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.008499</v>
+        <v>0.499775</v>
       </c>
     </row>
     <row r="109">
@@ -3815,7 +4937,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.026824</v>
+        <v>0.8374819999999999</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.024502</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0.011085</v>
       </c>
     </row>
     <row r="110">
@@ -3828,7 +4956,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-0.005541</v>
+        <v>0.24103</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.018198</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.038865</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.018072</v>
       </c>
     </row>
     <row r="111">
@@ -3841,7 +4978,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.339764</v>
+        <v>6.604614</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.960077</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.447698</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.016923</v>
       </c>
     </row>
     <row r="112">
@@ -3854,7 +5000,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.611753</v>
+        <v>11.61708</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.479138</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.6382640000000001</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.008772</v>
       </c>
     </row>
     <row r="113">
@@ -3867,7 +5022,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.189237</v>
+        <v>3.830584</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.924882</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.401318</v>
       </c>
     </row>
     <row r="114">
@@ -3880,7 +5041,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.185088</v>
+        <v>3.75411</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.332031</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.101663</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.016397</v>
       </c>
     </row>
     <row r="115">
@@ -3893,7 +5063,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.127564</v>
+        <v>2.694016</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.639868</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.343619</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.017617</v>
       </c>
     </row>
     <row r="116">
@@ -3906,7 +5085,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.145821</v>
+        <v>3.03046</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.09973700000000001</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.011891</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.016658</v>
       </c>
     </row>
     <row r="117">
@@ -3919,7 +5107,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-0.014318</v>
+        <v>0.079291</v>
       </c>
     </row>
     <row r="118">
@@ -3932,7 +5120,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.108379</v>
+        <v>2.340445</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.169537</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.034191</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.015679</v>
       </c>
     </row>
     <row r="119">
@@ -3945,7 +5142,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-0.012238</v>
+        <v>0.117612</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.025236</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.004782</v>
       </c>
     </row>
     <row r="120">
@@ -3958,7 +5161,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.252948</v>
+        <v>5.004708</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.563069</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.200016</v>
       </c>
     </row>
     <row r="121">
@@ -3971,7 +5180,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-0.018794</v>
+        <v>-0.003212</v>
       </c>
     </row>
     <row r="122">
@@ -3984,7 +5193,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.824553</v>
+        <v>15.538744</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.743034</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.136481</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.008248999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -3997,7 +5215,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.238054</v>
+        <v>4.73022</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.709335</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.347661</v>
       </c>
     </row>
     <row r="124">
@@ -4010,7 +5234,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.57916</v>
+        <v>11.016425</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.933049</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.9441889999999999</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.015805</v>
       </c>
     </row>
     <row r="125">
@@ -4023,7 +5256,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-0.020035</v>
+        <v>-0.026076</v>
       </c>
     </row>
     <row r="126">
@@ -4036,7 +5269,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.09837700000000001</v>
+        <v>2.156125</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.200738</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.034459</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.017513</v>
       </c>
     </row>
     <row r="127">
@@ -4049,7 +5291,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-0.019789</v>
+        <v>-0.021536</v>
       </c>
     </row>
     <row r="128">
@@ -4062,7 +5304,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.500802</v>
+        <v>9.572380000000001</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.161246</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.283127</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.013068</v>
       </c>
     </row>
     <row r="129">
@@ -4075,7 +5326,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.021136</v>
+        <v>0.732661</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.055059</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.009483</v>
       </c>
     </row>
     <row r="130">
@@ -4088,7 +5345,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-0.015544</v>
+        <v>0.056698</v>
       </c>
     </row>
     <row r="131">
@@ -4101,7 +5358,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.8821639999999999</v>
+        <v>16.60045</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.993893</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.565737</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.004362</v>
       </c>
     </row>
     <row r="132">
@@ -4114,7 +5380,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1.114908</v>
+        <v>20.889658</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.562034</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.152166</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.006046</v>
       </c>
     </row>
     <row r="133">
@@ -4127,7 +5402,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-0.012257</v>
+        <v>0.117268</v>
       </c>
     </row>
     <row r="134">
@@ -4140,7 +5415,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-0.017554</v>
+        <v>0.019654</v>
       </c>
     </row>
     <row r="135">
@@ -4153,7 +5428,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-0.015065</v>
+        <v>0.065514</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.019691</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-0.039257</v>
       </c>
     </row>
     <row r="136">
@@ -4166,7 +5447,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.037534</v>
+        <v>1.034868</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.121479</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.019989</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.017455</v>
       </c>
     </row>
     <row r="137">
@@ -4179,7 +5469,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-0.019935</v>
+        <v>-0.024222</v>
       </c>
     </row>
     <row r="138">
@@ -4192,7 +5482,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-0.01479</v>
+        <v>0.070595</v>
       </c>
     </row>
     <row r="139">
@@ -4205,7 +5495,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-0.012769</v>
+        <v>0.107827</v>
       </c>
     </row>
     <row r="140">
@@ -4218,7 +5508,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.09465700000000001</v>
+        <v>2.08757</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.301311</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.123983</v>
       </c>
     </row>
     <row r="141">
@@ -4231,7 +5527,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.121299</v>
+        <v>2.578552</v>
       </c>
     </row>
     <row r="142">
@@ -4244,7 +5540,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-0.020088</v>
+        <v>-0.027049</v>
       </c>
     </row>
     <row r="143">
@@ -4257,7 +5553,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>-0.012786</v>
+        <v>0.10752</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.011753</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.042233</v>
       </c>
     </row>
     <row r="144">
@@ -4270,7 +5572,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.08023</v>
+        <v>1.821698</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.00842</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-0.019782</v>
       </c>
     </row>
     <row r="145">
@@ -4283,7 +5591,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.138183</v>
+        <v>2.889705</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.399071</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.219458</v>
       </c>
     </row>
     <row r="146">
@@ -4296,7 +5610,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.803029</v>
+        <v>15.142075</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.497064</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.400706</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.007097</v>
       </c>
     </row>
     <row r="147">
@@ -4309,7 +5632,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.699428</v>
+        <v>13.232828</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.153446</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.289309</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.012816</v>
       </c>
     </row>
     <row r="148">
@@ -4322,7 +5654,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.114369</v>
+        <v>2.450842</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.270889</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.047903</v>
       </c>
     </row>
     <row r="149">
@@ -4335,7 +5673,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-0.013016</v>
+        <v>0.103271</v>
       </c>
     </row>
     <row r="150">
@@ -4348,7 +5686,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.001058</v>
+        <v>0.362644</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.001723</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-0.029201</v>
       </c>
     </row>
     <row r="151">
@@ -4361,7 +5705,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-0.001409</v>
+        <v>0.317175</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.004884</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-0.020331</v>
       </c>
     </row>
     <row r="152">
@@ -4374,7 +5724,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.040308</v>
+        <v>1.085973</v>
       </c>
     </row>
     <row r="153">
@@ -4387,7 +5737,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-0.016729</v>
+        <v>0.034858</v>
       </c>
     </row>
     <row r="154">
@@ -4400,7 +5750,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-0.014022</v>
+        <v>0.084744</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.01871</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-0.020181</v>
       </c>
     </row>
     <row r="155">
@@ -4413,7 +5769,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.006213</v>
+        <v>0.457642</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.029079</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-0.011017</v>
       </c>
     </row>
   </sheetData>
@@ -4427,7 +5789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4446,6 +5808,21 @@
           <t>OECD#AllRePub</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cwurscore</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cwurresearch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>shanghaiEng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -4470,7 +5847,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.005011</v>
+        <v>0.435504</v>
       </c>
     </row>
     <row r="4">
@@ -4483,6 +5860,12 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>0.299517</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.032944</v>
+      </c>
+      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4509,7 +5892,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.105864</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.213858</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4522,7 +5914,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.051614</v>
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.309859</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.231069</v>
       </c>
     </row>
     <row r="8">
@@ -4537,6 +5935,15 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.385199</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -4548,7 +5955,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.636155</v>
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.666777</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4561,7 +5977,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.000769</v>
+        <v>0.357323</v>
       </c>
     </row>
     <row r="11">
@@ -4574,7 +5990,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.376037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -4587,6 +6003,12 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>0.232305</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4600,7 +6022,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.031863</v>
+        <v>0.930348</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.075004</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4613,7 +6041,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.802641</v>
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.944248</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.101881</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4626,7 +6063,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.265844</v>
       </c>
     </row>
     <row r="16">
@@ -4639,7 +6076,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.110361</v>
       </c>
     </row>
     <row r="17">
@@ -4652,7 +6089,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.103269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -4665,7 +6102,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.025858</v>
+        <v>0.819678</v>
       </c>
     </row>
     <row r="19">
@@ -4678,7 +6115,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.194784</v>
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.216925</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.06376800000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4691,7 +6137,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.165316</v>
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.260567</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.07008499999999999</v>
       </c>
     </row>
     <row r="21">
@@ -4730,7 +6182,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.000767</v>
+        <v>0.357293</v>
       </c>
     </row>
     <row r="24">
@@ -4743,6 +6195,12 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>0.288013</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.003362</v>
+      </c>
+      <c r="E24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4756,7 +6214,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.7679589999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.315581</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4782,7 +6249,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.194385</v>
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.769373</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.361891</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4795,7 +6271,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.09705999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.147828</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.028242</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4808,7 +6293,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.080981</v>
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.125493</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.037259</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4834,7 +6328,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.076658</v>
       </c>
     </row>
     <row r="32">
@@ -4847,7 +6341,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.06793200000000001</v>
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.164134</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.049436</v>
       </c>
     </row>
     <row r="33">
@@ -4860,7 +6360,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.048405</v>
       </c>
     </row>
     <row r="34">
@@ -4873,7 +6373,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.43365</v>
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.982631</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.40403</v>
       </c>
     </row>
     <row r="35">
@@ -4886,7 +6392,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.046268</v>
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.049812</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.02066</v>
       </c>
     </row>
     <row r="36">
@@ -4899,7 +6411,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.580638</v>
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.748313</v>
       </c>
     </row>
     <row r="37">
@@ -4912,7 +6430,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.384118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -4927,6 +6445,15 @@
       <c r="C38" t="n">
         <v>1</v>
       </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.223646</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4938,7 +6465,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.065042</v>
       </c>
     </row>
     <row r="40">
@@ -4951,7 +6478,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.062986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -4964,7 +6491,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.049862</v>
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.135781</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.040985</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4977,7 +6513,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.193703</v>
       </c>
     </row>
     <row r="43">
@@ -5003,7 +6539,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.568625</v>
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.981882</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -5016,7 +6561,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.288791</v>
       </c>
     </row>
     <row r="46">
@@ -5029,6 +6574,12 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>0.175192</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.007383</v>
+      </c>
+      <c r="E46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5042,7 +6593,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.856122</v>
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.279706</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -5055,7 +6615,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.421621</v>
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.481492</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5068,7 +6637,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.160071</v>
       </c>
     </row>
     <row r="50">
@@ -5081,7 +6650,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.029346</v>
       </c>
     </row>
     <row r="51">
@@ -5094,7 +6663,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.03281</v>
+        <v>0.947793</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.509285</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.236301</v>
       </c>
     </row>
     <row r="52">
@@ -5107,7 +6682,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.545129</v>
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.878762</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.150218</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -5120,7 +6704,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01158</v>
+        <v>0.556554</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.027907</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -5133,7 +6723,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.378215</v>
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.532145</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5146,7 +6745,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.06772300000000001</v>
       </c>
     </row>
     <row r="56">
@@ -5172,7 +6771,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.010182</v>
       </c>
     </row>
     <row r="58">
@@ -5198,7 +6797,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.06282699999999999</v>
       </c>
     </row>
     <row r="60">
@@ -5211,7 +6810,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.70192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -5224,7 +6823,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.269701</v>
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.36516</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5237,7 +6845,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.014502</v>
+        <v>0.610402</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.013483</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -5250,7 +6867,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.084786</v>
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -5263,7 +6889,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.245726</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -5276,7 +6902,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.024608</v>
+        <v>0.7966529999999999</v>
       </c>
     </row>
     <row r="66">
@@ -5289,7 +6915,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.733382</v>
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.55169</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.009356</v>
       </c>
     </row>
     <row r="67">
@@ -5302,7 +6937,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.6234189999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.208485</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -5315,7 +6959,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.445119</v>
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.303997</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -5328,7 +6981,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.055696</v>
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.183156</v>
       </c>
     </row>
     <row r="70">
@@ -5341,7 +7000,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.308382</v>
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.430272</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -5354,7 +7022,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.08512</v>
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.244241</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.125319</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -5367,7 +7044,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.009963</v>
+        <v>0.526761</v>
       </c>
     </row>
     <row r="73">
@@ -5380,6 +7057,12 @@
         </is>
       </c>
       <c r="C73" t="n">
+        <v>0.329429</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5393,7 +7076,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.433068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -5406,7 +7089,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.06559</v>
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.19318</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.062588</v>
       </c>
     </row>
     <row r="76">
@@ -5419,7 +7108,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>0.089674</v>
       </c>
     </row>
     <row r="77">
@@ -5432,7 +7121,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>0.038131</v>
       </c>
     </row>
     <row r="78">
@@ -5445,7 +7134,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.276308</v>
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.487016</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.265979</v>
       </c>
     </row>
     <row r="79">
@@ -5458,7 +7153,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.12054</v>
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.318297</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.141424</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -5471,7 +7175,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.08226600000000001</v>
       </c>
     </row>
     <row r="81">
@@ -5497,7 +7201,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>0.241378</v>
       </c>
     </row>
     <row r="83">
@@ -5510,7 +7214,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.321831</v>
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.769007</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -5536,6 +7249,12 @@
         </is>
       </c>
       <c r="C85" t="n">
+        <v>0.04989</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.017368</v>
+      </c>
+      <c r="E85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5549,7 +7268,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.225577</v>
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.216929</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.056716</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -5562,7 +7290,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>0.008914999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -5588,7 +7316,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.037058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -5601,7 +7329,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.062409</v>
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.07845100000000001</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.007159</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -5614,7 +7351,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.014926</v>
+        <v>0.618215</v>
       </c>
     </row>
     <row r="92">
@@ -5627,7 +7364,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.008057</v>
+        <v>0.491631</v>
       </c>
     </row>
     <row r="93">
@@ -5640,7 +7377,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.000745</v>
+        <v>0.356869</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.07629</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.003689</v>
       </c>
     </row>
     <row r="94">
@@ -5653,7 +7396,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.004586</v>
+        <v>0.427659</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -5666,7 +7415,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>0.004276</v>
       </c>
     </row>
     <row r="96">
@@ -5679,7 +7428,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>0.257431</v>
       </c>
     </row>
     <row r="97">
@@ -5692,7 +7441,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.760979</v>
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.897919</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.053154</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -5705,7 +7463,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.72223</v>
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.418655</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -5718,7 +7485,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.015948</v>
+        <v>0.637052</v>
       </c>
     </row>
     <row r="100">
@@ -5744,7 +7511,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.002388</v>
+        <v>0.387157</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -5757,7 +7530,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.061159</v>
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.436721</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.308883</v>
       </c>
     </row>
     <row r="103">
@@ -5770,7 +7549,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.87621</v>
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -5783,7 +7571,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.050054</v>
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.182871</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.07087</v>
       </c>
     </row>
     <row r="105">
@@ -5796,7 +7590,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.007088</v>
+        <v>0.473781</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.013287</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -5809,7 +7612,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.009306</v>
+        <v>0.514652</v>
       </c>
     </row>
     <row r="107">
@@ -5822,7 +7625,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>0.015215</v>
       </c>
     </row>
     <row r="108">
@@ -5835,7 +7638,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.008499</v>
+        <v>0.499775</v>
       </c>
     </row>
     <row r="109">
@@ -5848,7 +7651,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.026824</v>
+        <v>0.8374819999999999</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.024502</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -5861,6 +7670,15 @@
         </is>
       </c>
       <c r="C110" t="n">
+        <v>0.24103</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5874,7 +7692,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.339764</v>
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.960077</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.447698</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -5887,7 +7714,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.611753</v>
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.6382640000000001</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -5900,7 +7736,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.189237</v>
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.924882</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.401318</v>
       </c>
     </row>
     <row r="114">
@@ -5913,7 +7755,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.185088</v>
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.332031</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.101663</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -5926,7 +7777,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.127564</v>
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.639868</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.343619</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -5939,7 +7799,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.145821</v>
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.09973700000000001</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.011891</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -5952,7 +7821,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>0.079291</v>
       </c>
     </row>
     <row r="118">
@@ -5965,7 +7834,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.108379</v>
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.169537</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.034191</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5978,6 +7856,12 @@
         </is>
       </c>
       <c r="C119" t="n">
+        <v>0.117612</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.025236</v>
+      </c>
+      <c r="E119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5991,7 +7875,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.252948</v>
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.563069</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.200016</v>
       </c>
     </row>
     <row r="121">
@@ -6017,7 +7907,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.824553</v>
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.743034</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.136481</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -6030,7 +7929,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.238054</v>
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.709335</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.347661</v>
       </c>
     </row>
     <row r="124">
@@ -6043,7 +7948,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.57916</v>
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.9441889999999999</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -6069,7 +7983,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.09837700000000001</v>
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.200738</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.034459</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -6095,7 +8018,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.500802</v>
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.283127</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -6108,7 +8040,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.021136</v>
+        <v>0.732661</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.055059</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.009483</v>
       </c>
     </row>
     <row r="130">
@@ -6121,7 +8059,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>0.056698</v>
       </c>
     </row>
     <row r="131">
@@ -6134,7 +8072,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.8821639999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.565737</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -6149,6 +8096,15 @@
       <c r="C132" t="n">
         <v>1</v>
       </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.152166</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6160,7 +8116,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>0.117268</v>
       </c>
     </row>
     <row r="134">
@@ -6173,7 +8129,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>0.019654</v>
       </c>
     </row>
     <row r="135">
@@ -6186,6 +8142,12 @@
         </is>
       </c>
       <c r="C135" t="n">
+        <v>0.065514</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6199,7 +8161,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.037534</v>
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.121479</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.019989</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -6225,7 +8196,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>0.070595</v>
       </c>
     </row>
     <row r="139">
@@ -6238,7 +8209,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>0.107827</v>
       </c>
     </row>
     <row r="140">
@@ -6251,7 +8222,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.09465700000000001</v>
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.301311</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.123983</v>
       </c>
     </row>
     <row r="141">
@@ -6264,7 +8241,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.121299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -6290,6 +8267,12 @@
         </is>
       </c>
       <c r="C143" t="n">
+        <v>0.10752</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6303,7 +8286,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.08023</v>
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.00842</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -6316,7 +8305,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.138183</v>
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.399071</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.219458</v>
       </c>
     </row>
     <row r="146">
@@ -6329,7 +8324,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.803029</v>
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.400706</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -6342,7 +8346,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.699428</v>
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.289309</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -6355,7 +8368,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.114369</v>
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.270889</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.047903</v>
       </c>
     </row>
     <row r="149">
@@ -6368,7 +8387,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>0.103271</v>
       </c>
     </row>
     <row r="150">
@@ -6381,7 +8400,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.001058</v>
+        <v>0.362644</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -6394,6 +8419,12 @@
         </is>
       </c>
       <c r="C151" t="n">
+        <v>0.317175</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.004884</v>
+      </c>
+      <c r="E151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6407,7 +8438,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.040308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -6420,7 +8451,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>0.034858</v>
       </c>
     </row>
     <row r="154">
@@ -6433,6 +8464,12 @@
         </is>
       </c>
       <c r="C154" t="n">
+        <v>0.084744</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.01871</v>
+      </c>
+      <c r="E154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6446,7 +8483,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.006213</v>
+        <v>0.457642</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.029079</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6505,10 +8548,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.019457</v>
+        <v>-0.015424</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.019457</v>
+        <v>-0.015424</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -6527,16 +8570,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.005011</v>
+        <v>0.435504</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005011</v>
+        <v>0.435504</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005011</v>
+        <v>0.435504</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005011</v>
+        <v>0.435504</v>
       </c>
     </row>
     <row r="4">
@@ -6549,16 +8592,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.002368</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.002368</v>
+        <v>0.299517</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.299517</v>
       </c>
     </row>
     <row r="5">
@@ -6571,10 +8614,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.019236</v>
+        <v>-0.011345</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.019236</v>
+        <v>-0.011345</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6593,16 +8636,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.105864</v>
+        <v>-0.017629</v>
       </c>
       <c r="D6" t="n">
-        <v>0.105864</v>
+        <v>2.294102</v>
       </c>
       <c r="E6" t="n">
-        <v>0.105864</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.105864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -6615,16 +8658,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.051614</v>
+        <v>0.231069</v>
       </c>
       <c r="D7" t="n">
-        <v>0.051614</v>
+        <v>1.29433</v>
       </c>
       <c r="E7" t="n">
-        <v>0.051614</v>
+        <v>0.231069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.051614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -6637,13 +8680,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.038813</v>
+        <v>-0.000888</v>
       </c>
       <c r="D8" t="n">
-        <v>1.038813</v>
+        <v>19.487319</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -6659,16 +8702,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.636155</v>
+        <v>-0.010342</v>
       </c>
       <c r="D9" t="n">
-        <v>0.636155</v>
+        <v>12.066783</v>
       </c>
       <c r="E9" t="n">
-        <v>0.636155</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.636155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -6681,16 +8724,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.000769</v>
+        <v>0.357323</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000769</v>
+        <v>0.357323</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000769</v>
+        <v>0.357323</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000769</v>
+        <v>0.357323</v>
       </c>
     </row>
     <row r="11">
@@ -6703,16 +8746,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.376037</v>
+        <v>7.273089</v>
       </c>
       <c r="D11" t="n">
-        <v>0.376037</v>
+        <v>7.273089</v>
       </c>
       <c r="E11" t="n">
-        <v>0.376037</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.376037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -6725,16 +8768,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.006015</v>
+        <v>-0.045748</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.006015</v>
+        <v>0.232305</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.232305</v>
       </c>
     </row>
     <row r="13">
@@ -6747,16 +8790,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.031863</v>
+        <v>-0.011871</v>
       </c>
       <c r="D13" t="n">
-        <v>0.031863</v>
+        <v>0.930348</v>
       </c>
       <c r="E13" t="n">
-        <v>0.031863</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.031863</v>
+        <v>0.930348</v>
       </c>
     </row>
     <row r="14">
@@ -6769,16 +8812,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.802641</v>
+        <v>-0.004934</v>
       </c>
       <c r="D14" t="n">
-        <v>0.802641</v>
+        <v>15.134933</v>
       </c>
       <c r="E14" t="n">
-        <v>0.802641</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.802641</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -6791,16 +8834,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.004195</v>
+        <v>0.265844</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.004195</v>
+        <v>0.265844</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.265844</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.265844</v>
       </c>
     </row>
     <row r="16">
@@ -6813,16 +8856,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.012632</v>
+        <v>0.110361</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.012632</v>
+        <v>0.110361</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.110361</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.110361</v>
       </c>
     </row>
     <row r="17">
@@ -6835,16 +8878,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.103269</v>
+        <v>2.246278</v>
       </c>
       <c r="D17" t="n">
-        <v>0.103269</v>
+        <v>2.246278</v>
       </c>
       <c r="E17" t="n">
-        <v>0.103269</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.103269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -6857,16 +8900,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.025858</v>
+        <v>0.819678</v>
       </c>
       <c r="D18" t="n">
-        <v>0.025858</v>
+        <v>0.819678</v>
       </c>
       <c r="E18" t="n">
-        <v>0.025858</v>
+        <v>0.819678</v>
       </c>
       <c r="F18" t="n">
-        <v>0.025858</v>
+        <v>0.819678</v>
       </c>
     </row>
     <row r="19">
@@ -6879,16 +8922,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.194784</v>
+        <v>-0.017292</v>
       </c>
       <c r="D19" t="n">
-        <v>0.194784</v>
+        <v>3.932805</v>
       </c>
       <c r="E19" t="n">
-        <v>0.194784</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.194784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -6901,16 +8944,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.165316</v>
+        <v>0.07008499999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.165316</v>
+        <v>3.389731</v>
       </c>
       <c r="E20" t="n">
-        <v>0.165316</v>
+        <v>0.07008499999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.165316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -6923,10 +8966,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.019122</v>
+        <v>-0.009247</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.019122</v>
+        <v>-0.009247</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -6945,10 +8988,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.019642</v>
+        <v>-0.018835</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.019642</v>
+        <v>-0.018835</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -6967,16 +9010,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.000767</v>
+        <v>0.357293</v>
       </c>
       <c r="D23" t="n">
-        <v>0.000767</v>
+        <v>0.357293</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000767</v>
+        <v>0.357293</v>
       </c>
       <c r="F23" t="n">
-        <v>0.000767</v>
+        <v>0.357293</v>
       </c>
     </row>
     <row r="24">
@@ -6989,16 +9032,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.002992</v>
+        <v>-0.03142</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.002992</v>
+        <v>0.288013</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.288013</v>
       </c>
     </row>
     <row r="25">
@@ -7011,16 +9054,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.7679589999999999</v>
+        <v>-0.007877</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7679589999999999</v>
+        <v>14.495786</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7679589999999999</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7679589999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -7033,10 +9076,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.019997</v>
+        <v>-0.025369</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.019997</v>
+        <v>-0.025369</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -7055,16 +9098,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.194385</v>
+        <v>-0.01335</v>
       </c>
       <c r="D27" t="n">
-        <v>0.194385</v>
+        <v>3.925447</v>
       </c>
       <c r="E27" t="n">
-        <v>0.194385</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.194385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -7077,16 +9120,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.09705999999999999</v>
+        <v>-0.017651</v>
       </c>
       <c r="D28" t="n">
-        <v>0.09705999999999999</v>
+        <v>2.131865</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09705999999999999</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09705999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -7099,16 +9142,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.080981</v>
+        <v>-0.017174</v>
       </c>
       <c r="D29" t="n">
-        <v>0.080981</v>
+        <v>1.835539</v>
       </c>
       <c r="E29" t="n">
-        <v>0.080981</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.080981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -7121,10 +9164,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.019311</v>
+        <v>-0.012731</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.019311</v>
+        <v>-0.012731</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -7143,16 +9186,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.01446</v>
+        <v>0.076658</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.01446</v>
+        <v>0.076658</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.076658</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.076658</v>
       </c>
     </row>
     <row r="32">
@@ -7165,16 +9208,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.06793200000000001</v>
+        <v>0.049436</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06793200000000001</v>
+        <v>1.595068</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06793200000000001</v>
+        <v>0.049436</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06793200000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -7187,16 +9230,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.015994</v>
+        <v>0.048405</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.015994</v>
+        <v>0.048405</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.048405</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.048405</v>
       </c>
     </row>
     <row r="34">
@@ -7209,16 +9252,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.43365</v>
+        <v>0.40403</v>
       </c>
       <c r="D34" t="n">
-        <v>0.43365</v>
+        <v>8.334839000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.43365</v>
+        <v>0.40403</v>
       </c>
       <c r="F34" t="n">
-        <v>0.43365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -7231,16 +9274,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.046268</v>
+        <v>0.02066</v>
       </c>
       <c r="D35" t="n">
-        <v>0.046268</v>
+        <v>1.195819</v>
       </c>
       <c r="E35" t="n">
-        <v>0.046268</v>
+        <v>0.02066</v>
       </c>
       <c r="F35" t="n">
-        <v>0.046268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -7253,16 +9296,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.580638</v>
+        <v>0.748313</v>
       </c>
       <c r="D36" t="n">
-        <v>0.580638</v>
+        <v>11.043671</v>
       </c>
       <c r="E36" t="n">
-        <v>0.580638</v>
+        <v>0.748313</v>
       </c>
       <c r="F36" t="n">
-        <v>0.580638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -7275,16 +9318,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.384118</v>
+        <v>7.422014</v>
       </c>
       <c r="D37" t="n">
-        <v>0.384118</v>
+        <v>7.422014</v>
       </c>
       <c r="E37" t="n">
-        <v>0.384118</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.384118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -7297,13 +9340,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.12379</v>
+        <v>-0.005378</v>
       </c>
       <c r="D38" t="n">
-        <v>1.12379</v>
+        <v>21.053346</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -7319,16 +9362,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.015091</v>
+        <v>0.065042</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.015091</v>
+        <v>0.065042</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.065042</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.065042</v>
       </c>
     </row>
     <row r="40">
@@ -7341,16 +9384,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.062986</v>
+        <v>1.503914</v>
       </c>
       <c r="D40" t="n">
-        <v>0.062986</v>
+        <v>1.503914</v>
       </c>
       <c r="E40" t="n">
-        <v>0.062986</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.062986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -7363,16 +9406,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.049862</v>
+        <v>-0.017675</v>
       </c>
       <c r="D41" t="n">
-        <v>0.049862</v>
+        <v>1.262058</v>
       </c>
       <c r="E41" t="n">
-        <v>0.049862</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.049862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -7385,16 +9428,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.008109</v>
+        <v>0.193703</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.008109</v>
+        <v>0.193703</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.193703</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.193703</v>
       </c>
     </row>
     <row r="43">
@@ -7407,10 +9450,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.018827</v>
+        <v>-0.003808</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.018827</v>
+        <v>-0.003808</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -7429,16 +9472,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.568625</v>
+        <v>-0.014479</v>
       </c>
       <c r="D44" t="n">
-        <v>0.568625</v>
+        <v>10.822274</v>
       </c>
       <c r="E44" t="n">
-        <v>0.568625</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.568625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -7451,16 +9494,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.00295</v>
+        <v>0.288791</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.00295</v>
+        <v>0.288791</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.288791</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.288791</v>
       </c>
     </row>
     <row r="46">
@@ -7473,16 +9516,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.009114000000000001</v>
+        <v>-0.021888</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.009114000000000001</v>
+        <v>0.175192</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.175192</v>
       </c>
     </row>
     <row r="47">
@@ -7495,16 +9538,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.856122</v>
+        <v>-0.005745</v>
       </c>
       <c r="D47" t="n">
-        <v>0.856122</v>
+        <v>16.120519</v>
       </c>
       <c r="E47" t="n">
-        <v>0.856122</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.856122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -7517,16 +9560,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.421621</v>
+        <v>-0.014645</v>
       </c>
       <c r="D48" t="n">
-        <v>0.421621</v>
+        <v>8.113149</v>
       </c>
       <c r="E48" t="n">
-        <v>0.421621</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.421621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -7539,16 +9582,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.009934</v>
+        <v>0.160071</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.009934</v>
+        <v>0.160071</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.160071</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.160071</v>
       </c>
     </row>
     <row r="50">
@@ -7561,16 +9604,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.017028</v>
+        <v>0.029346</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.017028</v>
+        <v>0.029346</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.029346</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.029346</v>
       </c>
     </row>
     <row r="51">
@@ -7583,16 +9626,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.03281</v>
+        <v>0.236301</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03281</v>
+        <v>0.947793</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03281</v>
+        <v>0.236301</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03281</v>
+        <v>0.947793</v>
       </c>
     </row>
     <row r="52">
@@ -7605,16 +9648,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.545129</v>
+        <v>-0.012219</v>
       </c>
       <c r="D52" t="n">
-        <v>0.545129</v>
+        <v>10.389268</v>
       </c>
       <c r="E52" t="n">
-        <v>0.545129</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.545129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -7627,16 +9670,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01158</v>
+        <v>-0.01582</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01158</v>
+        <v>0.556554</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01158</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01158</v>
+        <v>0.556554</v>
       </c>
     </row>
     <row r="54">
@@ -7649,16 +9692,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.378215</v>
+        <v>-0.011677</v>
       </c>
       <c r="D54" t="n">
-        <v>0.378215</v>
+        <v>7.313228</v>
       </c>
       <c r="E54" t="n">
-        <v>0.378215</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.378215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -7671,16 +9714,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.014945</v>
+        <v>0.06772300000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.014945</v>
+        <v>0.06772300000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.06772300000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.06772300000000001</v>
       </c>
     </row>
     <row r="56">
@@ -7693,10 +9736,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.020197</v>
+        <v>-0.029057</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.020197</v>
+        <v>-0.029057</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -7715,16 +9758,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-0.018068</v>
+        <v>0.010182</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.018068</v>
+        <v>0.010182</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.010182</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>0.010182</v>
       </c>
     </row>
     <row r="58">
@@ -7737,10 +9780,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.020069</v>
+        <v>-0.026702</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.020069</v>
+        <v>-0.026702</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -7759,16 +9802,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.015211</v>
+        <v>0.06282699999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.015211</v>
+        <v>0.06282699999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.06282699999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>0.06282699999999999</v>
       </c>
     </row>
     <row r="60">
@@ -7781,16 +9824,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.70192</v>
+        <v>13.278754</v>
       </c>
       <c r="D60" t="n">
-        <v>0.70192</v>
+        <v>13.278754</v>
       </c>
       <c r="E60" t="n">
-        <v>0.70192</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.70192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -7803,16 +9846,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.269701</v>
+        <v>-0.017622</v>
       </c>
       <c r="D61" t="n">
-        <v>0.269701</v>
+        <v>5.31344</v>
       </c>
       <c r="E61" t="n">
-        <v>0.269701</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.269701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -7825,16 +9868,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.014502</v>
+        <v>-0.022715</v>
       </c>
       <c r="D62" t="n">
-        <v>0.014502</v>
+        <v>0.610402</v>
       </c>
       <c r="E62" t="n">
-        <v>0.014502</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.014502</v>
+        <v>0.610402</v>
       </c>
     </row>
     <row r="63">
@@ -7847,16 +9890,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.084786</v>
+        <v>-0.047431</v>
       </c>
       <c r="D63" t="n">
-        <v>0.084786</v>
+        <v>1.905652</v>
       </c>
       <c r="E63" t="n">
-        <v>0.084786</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.084786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -7869,16 +9912,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.245726</v>
+        <v>4.871598</v>
       </c>
       <c r="D64" t="n">
-        <v>0.245726</v>
+        <v>4.871598</v>
       </c>
       <c r="E64" t="n">
-        <v>0.245726</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.245726</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -7891,16 +9934,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.024608</v>
+        <v>0.7966529999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.024608</v>
+        <v>0.7966529999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.024608</v>
+        <v>0.7966529999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.024608</v>
+        <v>0.7966529999999999</v>
       </c>
     </row>
     <row r="66">
@@ -7913,16 +9956,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.733382</v>
+        <v>0.009356</v>
       </c>
       <c r="D66" t="n">
-        <v>0.733382</v>
+        <v>13.858561</v>
       </c>
       <c r="E66" t="n">
-        <v>0.733382</v>
+        <v>0.009356</v>
       </c>
       <c r="F66" t="n">
-        <v>0.733382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -7935,16 +9978,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.6234189999999999</v>
+        <v>-0.00852</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6234189999999999</v>
+        <v>11.832062</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6234189999999999</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6234189999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -7957,16 +10000,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.445119</v>
+        <v>-0.012644</v>
       </c>
       <c r="D68" t="n">
-        <v>0.445119</v>
+        <v>8.546195000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>0.445119</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.445119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -7979,16 +10022,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.055696</v>
+        <v>0.183156</v>
       </c>
       <c r="D69" t="n">
-        <v>0.055696</v>
+        <v>1.369571</v>
       </c>
       <c r="E69" t="n">
-        <v>0.055696</v>
+        <v>0.183156</v>
       </c>
       <c r="F69" t="n">
-        <v>0.055696</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -8001,16 +10044,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.308382</v>
+        <v>-0.01551</v>
       </c>
       <c r="D70" t="n">
-        <v>0.308382</v>
+        <v>6.026292</v>
       </c>
       <c r="E70" t="n">
-        <v>0.308382</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.308382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -8023,16 +10066,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.08512</v>
+        <v>-0.014384</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08512</v>
+        <v>1.911822</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08512</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.08512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -8045,16 +10088,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.009963</v>
+        <v>0.526761</v>
       </c>
       <c r="D72" t="n">
-        <v>0.009963</v>
+        <v>0.526761</v>
       </c>
       <c r="E72" t="n">
-        <v>0.009963</v>
+        <v>0.526761</v>
       </c>
       <c r="F72" t="n">
-        <v>0.009963</v>
+        <v>0.526761</v>
       </c>
     </row>
     <row r="73">
@@ -8067,16 +10110,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.000745</v>
+        <v>-0.039938</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.000745</v>
+        <v>0.329429</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>0.329429</v>
       </c>
     </row>
     <row r="74">
@@ -8089,16 +10132,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.433068</v>
+        <v>8.324120000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.433068</v>
+        <v>8.324120000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.433068</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.433068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -8111,16 +10154,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.06559</v>
+        <v>0.062588</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06559</v>
+        <v>1.551899</v>
       </c>
       <c r="E75" t="n">
-        <v>0.06559</v>
+        <v>0.062588</v>
       </c>
       <c r="F75" t="n">
-        <v>0.06559</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -8133,16 +10176,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-0.013754</v>
+        <v>0.089674</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.013754</v>
+        <v>0.089674</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>0.089674</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>0.089674</v>
       </c>
     </row>
     <row r="77">
@@ -8155,16 +10198,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.016551</v>
+        <v>0.038131</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.016551</v>
+        <v>0.038131</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>0.038131</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>0.038131</v>
       </c>
     </row>
     <row r="78">
@@ -8177,16 +10220,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.276308</v>
+        <v>0.265979</v>
       </c>
       <c r="D78" t="n">
-        <v>0.276308</v>
+        <v>5.43519</v>
       </c>
       <c r="E78" t="n">
-        <v>0.276308</v>
+        <v>0.265979</v>
       </c>
       <c r="F78" t="n">
-        <v>0.276308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -8199,16 +10242,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.12054</v>
+        <v>-0.014684</v>
       </c>
       <c r="D79" t="n">
-        <v>0.12054</v>
+        <v>2.564575</v>
       </c>
       <c r="E79" t="n">
-        <v>0.12054</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.12054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -8221,16 +10264,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.014156</v>
+        <v>0.08226600000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.014156</v>
+        <v>0.08226600000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>0.08226600000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>0.08226600000000001</v>
       </c>
     </row>
     <row r="81">
@@ -8243,10 +10286,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-0.019882</v>
+        <v>-0.023257</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.019882</v>
+        <v>-0.023257</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -8265,16 +10308,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-0.005522</v>
+        <v>0.241378</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.005522</v>
+        <v>0.241378</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>0.241378</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>0.241378</v>
       </c>
     </row>
     <row r="83">
@@ -8287,16 +10330,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.321831</v>
+        <v>-0.007334</v>
       </c>
       <c r="D83" t="n">
-        <v>0.321831</v>
+        <v>6.274145</v>
       </c>
       <c r="E83" t="n">
-        <v>0.321831</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.321831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -8309,10 +10352,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.019047</v>
+        <v>-0.007874000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.019047</v>
+        <v>-0.007874000000000001</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -8331,16 +10374,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-0.015913</v>
+        <v>-0.02171</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.015913</v>
+        <v>0.04989</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>0.04989</v>
       </c>
     </row>
     <row r="86">
@@ -8353,16 +10396,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.225577</v>
+        <v>-0.012333</v>
       </c>
       <c r="D86" t="n">
-        <v>0.225577</v>
+        <v>4.50028</v>
       </c>
       <c r="E86" t="n">
-        <v>0.225577</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.225577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -8375,16 +10418,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.018136</v>
+        <v>0.008914999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.018136</v>
+        <v>0.008914999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>0.008914999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>0.008914999999999999</v>
       </c>
     </row>
     <row r="88">
@@ -8397,10 +10440,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.018809</v>
+        <v>-0.003479</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.018809</v>
+        <v>-0.003479</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -8419,16 +10462,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.037058</v>
+        <v>1.026078</v>
       </c>
       <c r="D89" t="n">
-        <v>0.037058</v>
+        <v>1.026078</v>
       </c>
       <c r="E89" t="n">
-        <v>0.037058</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.037058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -8441,16 +10484,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.062409</v>
+        <v>-0.017537</v>
       </c>
       <c r="D90" t="n">
-        <v>0.062409</v>
+        <v>1.493275</v>
       </c>
       <c r="E90" t="n">
-        <v>0.062409</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.062409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -8463,16 +10506,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.014926</v>
+        <v>0.618215</v>
       </c>
       <c r="D91" t="n">
-        <v>0.014926</v>
+        <v>0.618215</v>
       </c>
       <c r="E91" t="n">
-        <v>0.014926</v>
+        <v>0.618215</v>
       </c>
       <c r="F91" t="n">
-        <v>0.014926</v>
+        <v>0.618215</v>
       </c>
     </row>
     <row r="92">
@@ -8485,16 +10528,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.008057</v>
+        <v>0.491631</v>
       </c>
       <c r="D92" t="n">
-        <v>0.008057</v>
+        <v>0.491631</v>
       </c>
       <c r="E92" t="n">
-        <v>0.008057</v>
+        <v>0.491631</v>
       </c>
       <c r="F92" t="n">
-        <v>0.008057</v>
+        <v>0.491631</v>
       </c>
     </row>
     <row r="93">
@@ -8507,16 +10550,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.000745</v>
+        <v>0.003689</v>
       </c>
       <c r="D93" t="n">
-        <v>0.000745</v>
+        <v>0.356869</v>
       </c>
       <c r="E93" t="n">
-        <v>0.000745</v>
+        <v>0.003689</v>
       </c>
       <c r="F93" t="n">
-        <v>0.000745</v>
+        <v>0.356869</v>
       </c>
     </row>
     <row r="94">
@@ -8529,16 +10572,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.004586</v>
+        <v>-0.025458</v>
       </c>
       <c r="D94" t="n">
-        <v>0.004586</v>
+        <v>0.427659</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004586</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.004586</v>
+        <v>0.427659</v>
       </c>
     </row>
     <row r="95">
@@ -8551,16 +10594,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-0.018388</v>
+        <v>0.004276</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.018388</v>
+        <v>0.004276</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>0.004276</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>0.004276</v>
       </c>
     </row>
     <row r="96">
@@ -8573,16 +10616,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-0.004651</v>
+        <v>0.257431</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.004651</v>
+        <v>0.257431</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>0.257431</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>0.257431</v>
       </c>
     </row>
     <row r="97">
@@ -8595,16 +10638,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.760979</v>
+        <v>-0.007611</v>
       </c>
       <c r="D97" t="n">
-        <v>0.760979</v>
+        <v>14.367143</v>
       </c>
       <c r="E97" t="n">
-        <v>0.760979</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.760979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -8617,16 +10660,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.72223</v>
+        <v>-0.003277</v>
       </c>
       <c r="D98" t="n">
-        <v>0.72223</v>
+        <v>13.653053</v>
       </c>
       <c r="E98" t="n">
-        <v>0.72223</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.72223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -8639,16 +10682,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.015948</v>
+        <v>0.637052</v>
       </c>
       <c r="D99" t="n">
-        <v>0.015948</v>
+        <v>0.637052</v>
       </c>
       <c r="E99" t="n">
-        <v>0.015948</v>
+        <v>0.637052</v>
       </c>
       <c r="F99" t="n">
-        <v>0.015948</v>
+        <v>0.637052</v>
       </c>
     </row>
     <row r="100">
@@ -8661,10 +10704,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.019094</v>
+        <v>-0.008729000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.019094</v>
+        <v>-0.008729000000000001</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -8683,16 +10726,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.002388</v>
+        <v>-0.036611</v>
       </c>
       <c r="D101" t="n">
-        <v>0.002388</v>
+        <v>0.387157</v>
       </c>
       <c r="E101" t="n">
-        <v>0.002388</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002388</v>
+        <v>0.387157</v>
       </c>
     </row>
     <row r="102">
@@ -8705,16 +10748,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.061159</v>
+        <v>0.308883</v>
       </c>
       <c r="D102" t="n">
-        <v>0.061159</v>
+        <v>1.470239</v>
       </c>
       <c r="E102" t="n">
-        <v>0.061159</v>
+        <v>0.308883</v>
       </c>
       <c r="F102" t="n">
-        <v>0.061159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -8727,16 +10770,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.87621</v>
+        <v>-0.010069</v>
       </c>
       <c r="D103" t="n">
-        <v>0.87621</v>
+        <v>16.490729</v>
       </c>
       <c r="E103" t="n">
-        <v>0.87621</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.87621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -8749,16 +10792,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.050054</v>
+        <v>0.07087</v>
       </c>
       <c r="D104" t="n">
-        <v>0.050054</v>
+        <v>1.265583</v>
       </c>
       <c r="E104" t="n">
-        <v>0.050054</v>
+        <v>0.07087</v>
       </c>
       <c r="F104" t="n">
-        <v>0.050054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -8771,16 +10814,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.007088</v>
+        <v>-0.020726</v>
       </c>
       <c r="D105" t="n">
-        <v>0.007088</v>
+        <v>0.473781</v>
       </c>
       <c r="E105" t="n">
-        <v>0.007088</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.007088</v>
+        <v>0.473781</v>
       </c>
     </row>
     <row r="106">
@@ -8793,16 +10836,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.009306</v>
+        <v>0.514652</v>
       </c>
       <c r="D106" t="n">
-        <v>0.009306</v>
+        <v>0.514652</v>
       </c>
       <c r="E106" t="n">
-        <v>0.009306</v>
+        <v>0.514652</v>
       </c>
       <c r="F106" t="n">
-        <v>0.009306</v>
+        <v>0.514652</v>
       </c>
     </row>
     <row r="107">
@@ -8815,16 +10858,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-0.017795</v>
+        <v>0.015215</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.017795</v>
+        <v>0.015215</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>0.015215</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>0.015215</v>
       </c>
     </row>
     <row r="108">
@@ -8837,16 +10880,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.008499</v>
+        <v>0.499775</v>
       </c>
       <c r="D108" t="n">
-        <v>0.008499</v>
+        <v>0.499775</v>
       </c>
       <c r="E108" t="n">
-        <v>0.008499</v>
+        <v>0.499775</v>
       </c>
       <c r="F108" t="n">
-        <v>0.008499</v>
+        <v>0.499775</v>
       </c>
     </row>
     <row r="109">
@@ -8859,16 +10902,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.026824</v>
+        <v>-0.011085</v>
       </c>
       <c r="D109" t="n">
-        <v>0.026824</v>
+        <v>0.8374819999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.026824</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.026824</v>
+        <v>0.8374819999999999</v>
       </c>
     </row>
     <row r="110">
@@ -8881,16 +10924,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-0.005541</v>
+        <v>-0.038865</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.005541</v>
+        <v>0.24103</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>0.24103</v>
       </c>
     </row>
     <row r="111">
@@ -8903,16 +10946,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.339764</v>
+        <v>-0.016923</v>
       </c>
       <c r="D111" t="n">
-        <v>0.339764</v>
+        <v>6.604614</v>
       </c>
       <c r="E111" t="n">
-        <v>0.339764</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.339764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -8925,16 +10968,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.611753</v>
+        <v>-0.008772</v>
       </c>
       <c r="D112" t="n">
-        <v>0.611753</v>
+        <v>11.61708</v>
       </c>
       <c r="E112" t="n">
-        <v>0.611753</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.611753</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -8947,16 +10990,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.189237</v>
+        <v>0.401318</v>
       </c>
       <c r="D113" t="n">
-        <v>0.189237</v>
+        <v>3.830584</v>
       </c>
       <c r="E113" t="n">
-        <v>0.189237</v>
+        <v>0.401318</v>
       </c>
       <c r="F113" t="n">
-        <v>0.189237</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -8969,16 +11012,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.185088</v>
+        <v>-0.016397</v>
       </c>
       <c r="D114" t="n">
-        <v>0.185088</v>
+        <v>3.75411</v>
       </c>
       <c r="E114" t="n">
-        <v>0.185088</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.185088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -8991,16 +11034,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.127564</v>
+        <v>-0.017617</v>
       </c>
       <c r="D115" t="n">
-        <v>0.127564</v>
+        <v>2.694016</v>
       </c>
       <c r="E115" t="n">
-        <v>0.127564</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.127564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -9013,16 +11056,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.145821</v>
+        <v>-0.016658</v>
       </c>
       <c r="D116" t="n">
-        <v>0.145821</v>
+        <v>3.03046</v>
       </c>
       <c r="E116" t="n">
-        <v>0.145821</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.145821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -9035,16 +11078,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-0.014318</v>
+        <v>0.079291</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.014318</v>
+        <v>0.079291</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>0.079291</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>0.079291</v>
       </c>
     </row>
     <row r="118">
@@ -9057,16 +11100,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.108379</v>
+        <v>-0.015679</v>
       </c>
       <c r="D118" t="n">
-        <v>0.108379</v>
+        <v>2.340445</v>
       </c>
       <c r="E118" t="n">
-        <v>0.108379</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.108379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -9079,16 +11122,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-0.012238</v>
+        <v>-0.004782</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.012238</v>
+        <v>0.117612</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>0.117612</v>
       </c>
     </row>
     <row r="120">
@@ -9101,16 +11144,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.252948</v>
+        <v>0.200016</v>
       </c>
       <c r="D120" t="n">
-        <v>0.252948</v>
+        <v>5.004708</v>
       </c>
       <c r="E120" t="n">
-        <v>0.252948</v>
+        <v>0.200016</v>
       </c>
       <c r="F120" t="n">
-        <v>0.252948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -9123,10 +11166,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-0.018794</v>
+        <v>-0.003212</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.018794</v>
+        <v>-0.003212</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -9145,16 +11188,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.824553</v>
+        <v>-0.008248999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.824553</v>
+        <v>15.538744</v>
       </c>
       <c r="E122" t="n">
-        <v>0.824553</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.824553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -9167,16 +11210,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.238054</v>
+        <v>0.347661</v>
       </c>
       <c r="D123" t="n">
-        <v>0.238054</v>
+        <v>4.73022</v>
       </c>
       <c r="E123" t="n">
-        <v>0.238054</v>
+        <v>0.347661</v>
       </c>
       <c r="F123" t="n">
-        <v>0.238054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -9189,16 +11232,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.57916</v>
+        <v>-0.015805</v>
       </c>
       <c r="D124" t="n">
-        <v>0.57916</v>
+        <v>11.016425</v>
       </c>
       <c r="E124" t="n">
-        <v>0.57916</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.57916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -9211,10 +11254,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-0.020035</v>
+        <v>-0.026076</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.020035</v>
+        <v>-0.026076</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -9233,16 +11276,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.09837700000000001</v>
+        <v>-0.017513</v>
       </c>
       <c r="D126" t="n">
-        <v>0.09837700000000001</v>
+        <v>2.156125</v>
       </c>
       <c r="E126" t="n">
-        <v>0.09837700000000001</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.09837700000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -9255,10 +11298,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-0.019789</v>
+        <v>-0.021536</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.019789</v>
+        <v>-0.021536</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -9277,16 +11320,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.500802</v>
+        <v>-0.013068</v>
       </c>
       <c r="D128" t="n">
-        <v>0.500802</v>
+        <v>9.572380000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.500802</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.500802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -9299,16 +11342,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.021136</v>
+        <v>0.009483</v>
       </c>
       <c r="D129" t="n">
-        <v>0.021136</v>
+        <v>0.732661</v>
       </c>
       <c r="E129" t="n">
-        <v>0.021136</v>
+        <v>0.009483</v>
       </c>
       <c r="F129" t="n">
-        <v>0.021136</v>
+        <v>0.732661</v>
       </c>
     </row>
     <row r="130">
@@ -9321,16 +11364,16 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-0.015544</v>
+        <v>0.056698</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.015544</v>
+        <v>0.056698</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>0.056698</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>0.056698</v>
       </c>
     </row>
     <row r="131">
@@ -9343,16 +11386,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.8821639999999999</v>
+        <v>-0.004362</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8821639999999999</v>
+        <v>16.60045</v>
       </c>
       <c r="E131" t="n">
-        <v>0.8821639999999999</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8821639999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -9365,13 +11408,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1.114908</v>
+        <v>-0.006046</v>
       </c>
       <c r="D132" t="n">
-        <v>1.114908</v>
+        <v>20.889658</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
@@ -9387,16 +11430,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-0.012257</v>
+        <v>0.117268</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.012257</v>
+        <v>0.117268</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>0.117268</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>0.117268</v>
       </c>
     </row>
     <row r="134">
@@ -9409,16 +11452,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-0.017554</v>
+        <v>0.019654</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.017554</v>
+        <v>0.019654</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>0.019654</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>0.019654</v>
       </c>
     </row>
     <row r="135">
@@ -9431,16 +11474,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-0.015065</v>
+        <v>-0.039257</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.015065</v>
+        <v>0.065514</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>0.065514</v>
       </c>
     </row>
     <row r="136">
@@ -9453,16 +11496,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.037534</v>
+        <v>-0.017455</v>
       </c>
       <c r="D136" t="n">
-        <v>0.037534</v>
+        <v>1.034868</v>
       </c>
       <c r="E136" t="n">
-        <v>0.037534</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.037534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -9475,10 +11518,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-0.019935</v>
+        <v>-0.024222</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.019935</v>
+        <v>-0.024222</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -9497,16 +11540,16 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-0.01479</v>
+        <v>0.070595</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.01479</v>
+        <v>0.070595</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>0.070595</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>0.070595</v>
       </c>
     </row>
     <row r="139">
@@ -9519,16 +11562,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-0.012769</v>
+        <v>0.107827</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.012769</v>
+        <v>0.107827</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>0.107827</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>0.107827</v>
       </c>
     </row>
     <row r="140">
@@ -9541,16 +11584,16 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.09465700000000001</v>
+        <v>0.123983</v>
       </c>
       <c r="D140" t="n">
-        <v>0.09465700000000001</v>
+        <v>2.08757</v>
       </c>
       <c r="E140" t="n">
-        <v>0.09465700000000001</v>
+        <v>0.123983</v>
       </c>
       <c r="F140" t="n">
-        <v>0.09465700000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -9563,16 +11606,16 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.121299</v>
+        <v>2.578552</v>
       </c>
       <c r="D141" t="n">
-        <v>0.121299</v>
+        <v>2.578552</v>
       </c>
       <c r="E141" t="n">
-        <v>0.121299</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.121299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -9585,10 +11628,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-0.020088</v>
+        <v>-0.027049</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.020088</v>
+        <v>-0.027049</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -9607,16 +11650,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>-0.012786</v>
+        <v>-0.042233</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.012786</v>
+        <v>0.10752</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>0.10752</v>
       </c>
     </row>
     <row r="144">
@@ -9629,16 +11672,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.08023</v>
+        <v>-0.019782</v>
       </c>
       <c r="D144" t="n">
-        <v>0.08023</v>
+        <v>1.821698</v>
       </c>
       <c r="E144" t="n">
-        <v>0.08023</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.08023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -9651,16 +11694,16 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.138183</v>
+        <v>0.219458</v>
       </c>
       <c r="D145" t="n">
-        <v>0.138183</v>
+        <v>2.889705</v>
       </c>
       <c r="E145" t="n">
-        <v>0.138183</v>
+        <v>0.219458</v>
       </c>
       <c r="F145" t="n">
-        <v>0.138183</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -9673,16 +11716,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.803029</v>
+        <v>-0.007097</v>
       </c>
       <c r="D146" t="n">
-        <v>0.803029</v>
+        <v>15.142075</v>
       </c>
       <c r="E146" t="n">
-        <v>0.803029</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.803029</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -9695,16 +11738,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.699428</v>
+        <v>-0.012816</v>
       </c>
       <c r="D147" t="n">
-        <v>0.699428</v>
+        <v>13.232828</v>
       </c>
       <c r="E147" t="n">
-        <v>0.699428</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.699428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -9717,16 +11760,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.114369</v>
+        <v>0.047903</v>
       </c>
       <c r="D148" t="n">
-        <v>0.114369</v>
+        <v>2.450842</v>
       </c>
       <c r="E148" t="n">
-        <v>0.114369</v>
+        <v>0.047903</v>
       </c>
       <c r="F148" t="n">
-        <v>0.114369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -9739,16 +11782,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-0.013016</v>
+        <v>0.103271</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.013016</v>
+        <v>0.103271</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>0.103271</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>0.103271</v>
       </c>
     </row>
     <row r="150">
@@ -9761,16 +11804,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.001058</v>
+        <v>-0.029201</v>
       </c>
       <c r="D150" t="n">
-        <v>0.001058</v>
+        <v>0.362644</v>
       </c>
       <c r="E150" t="n">
-        <v>0.001058</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.001058</v>
+        <v>0.362644</v>
       </c>
     </row>
     <row r="151">
@@ -9783,16 +11826,16 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-0.001409</v>
+        <v>-0.020331</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.001409</v>
+        <v>0.317175</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>0.317175</v>
       </c>
     </row>
     <row r="152">
@@ -9805,16 +11848,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.040308</v>
+        <v>1.085973</v>
       </c>
       <c r="D152" t="n">
-        <v>0.040308</v>
+        <v>1.085973</v>
       </c>
       <c r="E152" t="n">
-        <v>0.040308</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.040308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -9827,16 +11870,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-0.016729</v>
+        <v>0.034858</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.016729</v>
+        <v>0.034858</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>0.034858</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>0.034858</v>
       </c>
     </row>
     <row r="154">
@@ -9849,16 +11892,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-0.014022</v>
+        <v>-0.020181</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.014022</v>
+        <v>0.084744</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>0.084744</v>
       </c>
     </row>
     <row r="155">
@@ -9871,16 +11914,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.006213</v>
+        <v>-0.011017</v>
       </c>
       <c r="D155" t="n">
-        <v>0.006213</v>
+        <v>0.457642</v>
       </c>
       <c r="E155" t="n">
-        <v>0.006213</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.006213</v>
+        <v>0.457642</v>
       </c>
     </row>
   </sheetData>
